--- a/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14376</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8663</v>
+        <v>9361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23137</v>
+        <v>22748</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02484898990866562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0149743735950904</v>
+        <v>0.01618092769987776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03999209108398256</v>
+        <v>0.03932010789912998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -762,19 +762,19 @@
         <v>56746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46325</v>
+        <v>45950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69219</v>
+        <v>68667</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06908101727783295</v>
+        <v>0.06908101727783296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05639488956134684</v>
+        <v>0.05593790811348791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08426565368196527</v>
+        <v>0.08359312765826835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -783,19 +783,19 @@
         <v>71122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59226</v>
+        <v>59485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84488</v>
+        <v>84475</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05080240597535303</v>
+        <v>0.05080240597535302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04230501022801401</v>
+        <v>0.0424905109367042</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06034956667141474</v>
+        <v>0.06034048417359312</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>564153</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>555392</v>
+        <v>555781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>569866</v>
+        <v>569168</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9751510100913344</v>
+        <v>0.9751510100913342</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9600079089160175</v>
+        <v>0.96067989210087</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9850256264049095</v>
+        <v>0.9838190723001222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1325</v>
@@ -833,19 +833,19 @@
         <v>764696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>752223</v>
+        <v>752775</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>775117</v>
+        <v>775492</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9309189827221669</v>
+        <v>0.930918982722167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9157343463180349</v>
+        <v>0.9164068723417316</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9436051104386531</v>
+        <v>0.944062091886512</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1996</v>
@@ -854,19 +854,19 @@
         <v>1328849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1315483</v>
+        <v>1315496</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340745</v>
+        <v>1340486</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9491975940246471</v>
+        <v>0.9491975940246469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9396504333285852</v>
+        <v>0.9396595158264068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9576949897719859</v>
+        <v>0.9575094890632958</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>44298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32535</v>
+        <v>31926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62282</v>
+        <v>60548</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01985961922630104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01458607135022224</v>
+        <v>0.01431292046329472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02792226647425785</v>
+        <v>0.02714456824678261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>131</v>
@@ -979,19 +979,19 @@
         <v>88551</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74558</v>
+        <v>73976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108098</v>
+        <v>106772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04079367342647491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03434755646938605</v>
+        <v>0.03407918228241433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04979840893246294</v>
+        <v>0.04918769910471626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -1000,19 +1000,19 @@
         <v>132849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112544</v>
+        <v>112298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>154640</v>
+        <v>157607</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03018429053080687</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02557083875534127</v>
+        <v>0.02551479408256792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03513524052782355</v>
+        <v>0.03580929886376402</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2186268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2168284</v>
+        <v>2170018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2198031</v>
+        <v>2198640</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9801403807736991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9720777335257423</v>
+        <v>0.9728554317532172</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854139286497778</v>
+        <v>0.9856870795367051</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2789</v>
@@ -1050,19 +1050,19 @@
         <v>2082156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2062609</v>
+        <v>2063935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2096149</v>
+        <v>2096731</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9592063265735251</v>
+        <v>0.959206326573525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9502015910675371</v>
+        <v>0.9508123008952841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9656524435306137</v>
+        <v>0.9659208177175856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4736</v>
@@ -1071,19 +1071,19 @@
         <v>4268425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4246634</v>
+        <v>4243667</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4288730</v>
+        <v>4288976</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9698157094691933</v>
+        <v>0.969815709469193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9648647594721764</v>
+        <v>0.9641907011362358</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9744291612446588</v>
+        <v>0.974485205917432</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>22600</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14505</v>
+        <v>14273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33011</v>
+        <v>33194</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03176051864031521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02038400826472889</v>
+        <v>0.02005842599824293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0463902083835344</v>
+        <v>0.04664806329048609</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1196,19 +1196,19 @@
         <v>48172</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37665</v>
+        <v>39085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60664</v>
+        <v>60202</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06555049929860776</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05125303047863327</v>
+        <v>0.05318625476311904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08255007453684723</v>
+        <v>0.08192171566453525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1217,19 +1217,19 @@
         <v>70772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57884</v>
+        <v>57303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87099</v>
+        <v>87730</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04892754371093097</v>
+        <v>0.04892754371093096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04001780139219209</v>
+        <v>0.03961618068900543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06021520352143277</v>
+        <v>0.06065164928534961</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>688987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678576</v>
+        <v>678393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>697082</v>
+        <v>697314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9682394813596849</v>
+        <v>0.9682394813596846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9536097916164655</v>
+        <v>0.9533519367095138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9796159917352713</v>
+        <v>0.9799415740017573</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>934</v>
@@ -1267,19 +1267,19 @@
         <v>686705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674213</v>
+        <v>674675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>697212</v>
+        <v>695792</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.934449500701392</v>
+        <v>0.9344495007013923</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9174499254631528</v>
+        <v>0.9180782843354646</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9487469695213665</v>
+        <v>0.9468137452368808</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1589</v>
@@ -1288,19 +1288,19 @@
         <v>1375692</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1359365</v>
+        <v>1358734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388580</v>
+        <v>1389161</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9510724562890691</v>
+        <v>0.9510724562890689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9397847964785676</v>
+        <v>0.9393483507146505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9599821986078079</v>
+        <v>0.9603838193109948</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>81274</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65121</v>
+        <v>63917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103246</v>
+        <v>100926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0230848525618936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01849683386435539</v>
+        <v>0.01815462945842101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.029325511795086</v>
+        <v>0.02866648396645217</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>302</v>
@@ -1413,19 +1413,19 @@
         <v>193469</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>170963</v>
+        <v>172573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216145</v>
+        <v>217467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05190967622260875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04587114259183991</v>
+        <v>0.04630317224302199</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05799386564930664</v>
+        <v>0.05834865329770354</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -1434,19 +1434,19 @@
         <v>274743</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246495</v>
+        <v>247929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304737</v>
+        <v>303242</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03790758818013476</v>
+        <v>0.03790758818013477</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03401001151268569</v>
+        <v>0.03420791546999467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04204597962572298</v>
+        <v>0.04183964675840366</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3439409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3417437</v>
+        <v>3419757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3455562</v>
+        <v>3456766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9769151474381063</v>
+        <v>0.9769151474381065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9706744882049139</v>
+        <v>0.9713335160335478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9815031661356446</v>
+        <v>0.9818453705415789</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5048</v>
@@ -1484,19 +1484,19 @@
         <v>3533557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3510881</v>
+        <v>3509559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3556063</v>
+        <v>3554453</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9480903237773912</v>
+        <v>0.9480903237773913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9420061343506936</v>
+        <v>0.9416513467022966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9541288574081601</v>
+        <v>0.9536968277569781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8321</v>
@@ -1505,19 +1505,19 @@
         <v>6972966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6942972</v>
+        <v>6944467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7001214</v>
+        <v>6999780</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9620924118198652</v>
+        <v>0.9620924118198654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579540203742769</v>
+        <v>0.9581603532415968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9659899884873143</v>
+        <v>0.9657920845300056</v>
       </c>
     </row>
     <row r="15">
